--- a/analysis/metadata/P04_7/P04_7_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_7/P04_7_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2021-11-07</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2021-11-07</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2021-10-31</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2021-10-31</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>02/11/2021 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>02/11/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2021-11-01</t>
+          <t>01/11/2021 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2021-11-01</t>
+          <t>01/11/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>02/11/2021 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>02/11/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>02/11/2021 00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>02/11/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 00:00</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P04_7/P04_7_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_7/P04_7_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>02/11/2021 00:00</t>
+          <t>2021-11-02</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>02/11/2021 00:00</t>
+          <t>2021-11-02</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>01/11/2021 00:00</t>
+          <t>2021-11-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>01/11/2021 00:00</t>
+          <t>2021-11-01</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>02/11/2021 00:00</t>
+          <t>2021-11-02</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>02/11/2021 00:00</t>
+          <t>2021-11-02</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>02/11/2021 00:00</t>
+          <t>2021-11-02</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>02/11/2021 00:00</t>
+          <t>2021-11-02</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>06/11/2021 00:00</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>06/11/2021 00:00</t>
+          <t>2021-11-06</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P04_7/P04_7_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_7/P04_7_minimal_metadata.xlsx
@@ -461,6 +461,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6141</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>nibe</t>
@@ -494,6 +499,21 @@
       <c r="M2" t="inlineStr">
         <is>
           <t>2022-01-25</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Barley, Spring</t>
         </is>
       </c>
     </row>
@@ -521,7 +541,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -557,6 +577,21 @@
       <c r="M3" t="inlineStr">
         <is>
           <t>2022-01-25</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Barley, Spring</t>
         </is>
       </c>
     </row>
@@ -584,7 +619,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6713</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -620,6 +655,21 @@
       <c r="M4" t="inlineStr">
         <is>
           <t>2021-11-02</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Malvids</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Brassicales, Rapeseed, Winter</t>
         </is>
       </c>
     </row>
@@ -647,7 +697,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>122E</t>
+          <t>6861</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -683,6 +733,21 @@
       <c r="M5" t="inlineStr">
         <is>
           <t>2021-11-01</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Legume mix</t>
         </is>
       </c>
     </row>
@@ -710,7 +775,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>6232</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -746,6 +811,21 @@
       <c r="M6" t="inlineStr">
         <is>
           <t>2021-11-02</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Poales, grass</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Permanent grass, Normal yield</t>
         </is>
       </c>
     </row>
@@ -773,7 +853,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -809,6 +889,21 @@
       <c r="M7" t="inlineStr">
         <is>
           <t>2021-11-02</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Barley, Spring</t>
         </is>
       </c>
     </row>
@@ -834,6 +929,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6141</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>hjørring</t>
@@ -867,6 +967,21 @@
       <c r="M8" t="inlineStr">
         <is>
           <t>2021-11-06</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Barley, Spring</t>
         </is>
       </c>
     </row>
